--- a/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3265"/>
+  <dimension ref="A1:C3269"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37111,7 +37111,7 @@
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr">
@@ -37128,7 +37128,7 @@
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2163" t="inlineStr">
@@ -44370,7 +44370,7 @@
       </c>
       <c r="B2589" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2589" t="inlineStr">
@@ -44387,7 +44387,7 @@
       </c>
       <c r="B2590" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2590" t="inlineStr">
@@ -44846,7 +44846,7 @@
       </c>
       <c r="B2617" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2617" t="inlineStr">
@@ -44863,7 +44863,7 @@
       </c>
       <c r="B2618" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2618" t="inlineStr">
@@ -55866,6 +55866,74 @@
         </is>
       </c>
       <c r="C3265" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3266">
+      <c r="A3266" t="inlineStr">
+        <is>
+          <t>09-12-2021</t>
+        </is>
+      </c>
+      <c r="B3266" t="inlineStr">
+        <is>
+          <t>2847516.09</t>
+        </is>
+      </c>
+      <c r="C3266" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3267">
+      <c r="A3267" t="inlineStr">
+        <is>
+          <t>10-12-2021</t>
+        </is>
+      </c>
+      <c r="B3267" t="inlineStr">
+        <is>
+          <t>4481293.659</t>
+        </is>
+      </c>
+      <c r="C3267" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3268">
+      <c r="A3268" t="inlineStr">
+        <is>
+          <t>11-12-2021</t>
+        </is>
+      </c>
+      <c r="B3268" t="inlineStr">
+        <is>
+          <t>4481293.659</t>
+        </is>
+      </c>
+      <c r="C3268" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3269">
+      <c r="A3269" t="inlineStr">
+        <is>
+          <t>12-12-2021</t>
+        </is>
+      </c>
+      <c r="B3269" t="inlineStr">
+        <is>
+          <t>4481293.659</t>
+        </is>
+      </c>
+      <c r="C3269" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
@@ -37111,7 +37111,7 @@
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr">
@@ -37128,7 +37128,7 @@
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2163" t="inlineStr">
@@ -44370,7 +44370,7 @@
       </c>
       <c r="B2589" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2589" t="inlineStr">
@@ -44387,7 +44387,7 @@
       </c>
       <c r="B2590" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2590" t="inlineStr">
@@ -44846,7 +44846,7 @@
       </c>
       <c r="B2617" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2617" t="inlineStr">
@@ -44863,7 +44863,7 @@
       </c>
       <c r="B2618" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2618" t="inlineStr">

--- a/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3269"/>
+  <dimension ref="A1:C3270"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37111,7 +37111,7 @@
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr">
@@ -37128,7 +37128,7 @@
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2163" t="inlineStr">
@@ -44370,7 +44370,7 @@
       </c>
       <c r="B2589" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2589" t="inlineStr">
@@ -44387,7 +44387,7 @@
       </c>
       <c r="B2590" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2590" t="inlineStr">
@@ -44846,7 +44846,7 @@
       </c>
       <c r="B2617" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2617" t="inlineStr">
@@ -44863,7 +44863,7 @@
       </c>
       <c r="B2618" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2618" t="inlineStr">
@@ -55934,6 +55934,23 @@
         </is>
       </c>
       <c r="C3269" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3270">
+      <c r="A3270" t="inlineStr">
+        <is>
+          <t>13-12-2021</t>
+        </is>
+      </c>
+      <c r="B3270" t="inlineStr">
+        <is>
+          <t>5533028.115</t>
+        </is>
+      </c>
+      <c r="C3270" t="inlineStr">
         <is>
           <t>OK</t>
         </is>

--- a/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3270"/>
+  <dimension ref="A1:C3271"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55956,6 +55956,23 @@
         </is>
       </c>
     </row>
+    <row r="3271">
+      <c r="A3271" t="inlineStr">
+        <is>
+          <t>14-12-2021</t>
+        </is>
+      </c>
+      <c r="B3271" t="inlineStr">
+        <is>
+          <t>5823834.831</t>
+        </is>
+      </c>
+      <c r="C3271" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
@@ -37111,7 +37111,7 @@
       </c>
       <c r="B2162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2162" t="inlineStr">
@@ -37128,7 +37128,7 @@
       </c>
       <c r="B2163" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2163" t="inlineStr">
@@ -44370,7 +44370,7 @@
       </c>
       <c r="B2589" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2589" t="inlineStr">
@@ -44387,7 +44387,7 @@
       </c>
       <c r="B2590" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2590" t="inlineStr">
@@ -44846,7 +44846,7 @@
       </c>
       <c r="B2617" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2617" t="inlineStr">
@@ -44863,7 +44863,7 @@
       </c>
       <c r="B2618" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2618" t="inlineStr">

--- a/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3271"/>
+  <dimension ref="A1:C3272"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55973,6 +55973,23 @@
         </is>
       </c>
     </row>
+    <row r="3272">
+      <c r="A3272" t="inlineStr">
+        <is>
+          <t>15-12-2021</t>
+        </is>
+      </c>
+      <c r="B3272" t="inlineStr">
+        <is>
+          <t>841822.943</t>
+        </is>
+      </c>
+      <c r="C3272" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3272"/>
+  <dimension ref="A1:C3273"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55990,6 +55990,23 @@
         </is>
       </c>
     </row>
+    <row r="3273">
+      <c r="A3273" t="inlineStr">
+        <is>
+          <t>16-12-2021</t>
+        </is>
+      </c>
+      <c r="B3273" t="inlineStr">
+        <is>
+          <t>-54383.4149999991</t>
+        </is>
+      </c>
+      <c r="C3273" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.PLI.STO.Z.Z.CLP.D.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3273"/>
+  <dimension ref="A1:C3276"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -56007,6 +56007,57 @@
         </is>
       </c>
     </row>
+    <row r="3274">
+      <c r="A3274" t="inlineStr">
+        <is>
+          <t>17-12-2021</t>
+        </is>
+      </c>
+      <c r="B3274" t="inlineStr">
+        <is>
+          <t>-737362</t>
+        </is>
+      </c>
+      <c r="C3274" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3275">
+      <c r="A3275" t="inlineStr">
+        <is>
+          <t>18-12-2021</t>
+        </is>
+      </c>
+      <c r="B3275" t="inlineStr">
+        <is>
+          <t>-737362</t>
+        </is>
+      </c>
+      <c r="C3275" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="3276">
+      <c r="A3276" t="inlineStr">
+        <is>
+          <t>19-12-2021</t>
+        </is>
+      </c>
+      <c r="B3276" t="inlineStr">
+        <is>
+          <t>-737362</t>
+        </is>
+      </c>
+      <c r="C3276" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
